--- a/biology/Botanique/Bremeria_landia/Bremeria_landia.xlsx
+++ b/biology/Botanique/Bremeria_landia/Bremeria_landia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Quinquina Pays (Bremeria landia) est un arbre appartenant à la famille des Rubiaceae.
 Il porte un tronc droit, peu fourni en branches et atteint généralement la canopée.
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 févr. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 févr. 2012) :
 variété Bremeria landia var. holosericea (Sm.) A.P.Davis &amp; Razafim. (2011)
 variété Bremeria landia var. landia
 variété Bremeria landia var. stadmanii (Michx. ex DC.) A.P.Davis &amp; Razafim. (2011)</t>
@@ -546,7 +560,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Quinquina Pays reste une plante peu connue, souvent arrachée par méconnaissance afin de libérer des espaces agricoles. La régénération naturelle est difficile, toutefois, les graines, bien que difficiles à récolter, montrent un pouvoir germinatif satisfaisant.
 </t>
@@ -577,10 +593,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu des tisaniers qui lui prêtent des vertus médicinales, comme astringent, tonique et fébrifuge.
-Il pourrait être planté pour l'ornementation des parcs et jardins pour l'intérêt de ses fleurs blanches et parfumées portées durant tout l'été austral, de janvier à avril[2].
+Il pourrait être planté pour l'ornementation des parcs et jardins pour l'intérêt de ses fleurs blanches et parfumées portées durant tout l'été austral, de janvier à avril.
 </t>
         </is>
       </c>
